--- a/product_data/processing_metadata/C3/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C3/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D7A225F8-CAC4-42D0-8216-B01AD5620F76}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B9E723-AF88-4BD6-8D4F-3EA256F160D2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="212">
   <si>
     <t>file_type</t>
   </si>
@@ -510,9 +510,6 @@
     <t>CCHDO</t>
   </si>
   <si>
-    <t xml:space="preserve">320620180309    </t>
-  </si>
-  <si>
     <t>Alison Macdonad - Ellen Briggs</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>E:/Data_downloads/CCHDO/320620140320/exchange_ctd</t>
   </si>
   <si>
-    <t xml:space="preserve">320620140320    </t>
-  </si>
-  <si>
     <t>Lynne Talley - Brendan Carter</t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>E:/Data_downloads/CCHDO/320620110219/exchange_ctd</t>
   </si>
   <si>
-    <t xml:space="preserve">320620110219    </t>
-  </si>
-  <si>
     <t>James Smith</t>
   </si>
   <si>
@@ -634,6 +625,51 @@
   </si>
   <si>
     <t>E:/Data_downloads/JGOFS/320619971105/all_ctd</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>320619971105_prof</t>
+  </si>
+  <si>
+    <t>320619970404_prof</t>
+  </si>
+  <si>
+    <t>320620060131_prof</t>
+  </si>
+  <si>
+    <t>PAL-LTER_prof</t>
+  </si>
+  <si>
+    <t>320620161224_prof</t>
+  </si>
+  <si>
+    <t>320620170703_prof</t>
+  </si>
+  <si>
+    <t>320620151207_prof</t>
+  </si>
+  <si>
+    <t>320620170410_prof</t>
+  </si>
+  <si>
+    <t>320620180309_prof</t>
+  </si>
+  <si>
+    <t>320620110219_prof</t>
+  </si>
+  <si>
+    <t>320620140320 _prof</t>
+  </si>
+  <si>
+    <t>320620180309</t>
+  </si>
+  <si>
+    <t>320620140320</t>
+  </si>
+  <si>
+    <t>320620110219</t>
   </si>
 </sst>
 </file>
@@ -669,10 +705,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DCEF4-052E-4590-A121-F67F1E7CF4E2}">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -998,7 +1036,7 @@
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,133 +1071,136 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1208,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>88</v>
@@ -1190,111 +1231,111 @@
       <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="M2" t="s">
-        <v>56</v>
+      <c r="L2" t="s">
+        <v>199</v>
       </c>
       <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
       <c r="Q2" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T2" t="s">
         <v>93</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>94</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>95</v>
       </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
       <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
       <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>99</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
       <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>103</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>105</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>106</v>
       </c>
-      <c r="AM2" t="s">
-        <v>56</v>
-      </c>
       <c r="AN2" t="s">
         <v>56</v>
       </c>
       <c r="AO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>108</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
       <c r="AV2" t="s">
         <v>56</v>
       </c>
@@ -1313,8 +1354,11 @@
       <c r="BA2" t="s">
         <v>56</v>
       </c>
+      <c r="BB2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
@@ -1345,111 +1389,111 @@
       <c r="J3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
-        <v>56</v>
+      <c r="L3" t="s">
+        <v>198</v>
       </c>
       <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
       <c r="Q3" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T3" t="s">
         <v>93</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>94</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>95</v>
       </c>
-      <c r="V3" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
         <v>96</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
-        <v>56</v>
-      </c>
       <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" t="s">
-        <v>56</v>
-      </c>
       <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
         <v>101</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>105</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>106</v>
       </c>
-      <c r="AM3" t="s">
-        <v>56</v>
-      </c>
       <c r="AN3" t="s">
         <v>56</v>
       </c>
       <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
         <v>107</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>85</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>67</v>
       </c>
-      <c r="AU3" t="s">
-        <v>56</v>
-      </c>
       <c r="AV3" t="s">
         <v>56</v>
       </c>
@@ -1468,8 +1512,11 @@
       <c r="BA3" t="s">
         <v>56</v>
       </c>
+      <c r="BB3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1497,74 +1544,77 @@
       <c r="I4" t="s">
         <v>133</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" t="s">
         <v>134</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>135</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>55</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>136</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>137</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>136</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>137</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>138</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>139</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>140</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>59</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>83</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>60</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>141</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>142</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>143</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>109</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1590,76 +1640,79 @@
         <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" t="s">
         <v>134</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>135</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>136</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>137</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>136</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>137</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>138</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>139</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>140</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>58</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>59</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>60</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>141</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>142</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>63</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1687,74 +1740,77 @@
       <c r="I6" t="s">
         <v>150</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" t="s">
         <v>151</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>135</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>55</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>136</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>137</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>136</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>139</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>140</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>59</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>60</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>141</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>142</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>84</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>85</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1782,83 +1838,86 @@
       <c r="I7" t="s">
         <v>154</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" t="s">
         <v>134</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>135</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>55</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>155</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>137</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>155</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>138</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>139</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>140</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>59</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>60</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>141</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>142</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>85</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>143</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>109</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>63</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1925,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
         <v>131</v>
@@ -1881,64 +1940,67 @@
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" t="s">
         <v>135</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>55</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>155</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>137</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>155</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>139</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>140</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>58</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>59</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>141</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1951,8 +2013,8 @@
       <c r="D9" t="s">
         <v>157</v>
       </c>
-      <c r="E9" t="s">
-        <v>158</v>
+      <c r="E9" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1961,125 +2023,125 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" t="s">
         <v>159</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>160</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
         <v>161</v>
       </c>
-      <c r="M9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>162</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" t="s">
         <v>163</v>
       </c>
-      <c r="S9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
         <v>164</v>
       </c>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>165</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT9" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR9" t="s">
+      <c r="AU9" t="s">
         <v>109</v>
       </c>
-      <c r="AS9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>46</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>63</v>
       </c>
-      <c r="AW9" t="s">
-        <v>56</v>
-      </c>
       <c r="AX9" t="s">
         <v>56</v>
       </c>
@@ -2092,8 +2154,11 @@
       <c r="BA9" t="s">
         <v>56</v>
       </c>
+      <c r="BB9" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2101,13 +2166,13 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
         <v>157</v>
       </c>
-      <c r="E10" t="s">
-        <v>169</v>
+      <c r="E10" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2116,62 +2181,62 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
       </c>
       <c r="J10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" t="s">
+        <v>162</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" t="s">
+        <v>163</v>
+      </c>
+      <c r="W10" t="s">
+        <v>170</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" t="s">
         <v>171</v>
       </c>
-      <c r="M10" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>162</v>
-      </c>
-      <c r="R10" t="s">
-        <v>163</v>
-      </c>
-      <c r="S10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="AA10" t="s">
         <v>164</v>
       </c>
-      <c r="V10" t="s">
-        <v>172</v>
-      </c>
-      <c r="W10" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>165</v>
       </c>
-      <c r="AA10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>56</v>
-      </c>
       <c r="AC10" t="s">
         <v>56</v>
       </c>
@@ -2182,47 +2247,47 @@
         <v>56</v>
       </c>
       <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
         <v>66</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>32</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>59</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>36</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>60</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>38</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>69</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>40</v>
       </c>
-      <c r="AP10" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
         <v>42</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>109</v>
       </c>
-      <c r="AS10" t="s">
-        <v>56</v>
-      </c>
       <c r="AT10" t="s">
         <v>56</v>
       </c>
@@ -2247,8 +2312,11 @@
       <c r="BA10" t="s">
         <v>56</v>
       </c>
+      <c r="BB10" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2256,13 +2324,13 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
         <v>157</v>
       </c>
-      <c r="E11" t="s">
-        <v>175</v>
+      <c r="E11" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2271,62 +2339,62 @@
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I11" t="s">
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" t="s">
         <v>135</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>75</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>55</v>
       </c>
-      <c r="P11" t="s">
-        <v>56</v>
-      </c>
       <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S11" t="s">
         <v>162</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" t="s">
         <v>163</v>
       </c>
-      <c r="S11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
+        <v>170</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA11" t="s">
         <v>164</v>
       </c>
-      <c r="V11" t="s">
-        <v>172</v>
-      </c>
-      <c r="W11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>165</v>
       </c>
-      <c r="AA11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>56</v>
-      </c>
       <c r="AC11" t="s">
         <v>56</v>
       </c>
@@ -2337,47 +2405,47 @@
         <v>56</v>
       </c>
       <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" t="s">
         <v>66</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>32</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>59</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>36</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>60</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>38</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>69</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" t="s">
-        <v>56</v>
-      </c>
       <c r="AQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" t="s">
         <v>42</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>109</v>
       </c>
-      <c r="AS11" t="s">
-        <v>56</v>
-      </c>
       <c r="AT11" t="s">
         <v>56</v>
       </c>
@@ -2402,8 +2470,11 @@
       <c r="BA11" t="s">
         <v>56</v>
       </c>
+      <c r="BB11" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2411,7 +2482,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -2420,7 +2491,7 @@
         <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -2434,54 +2505,54 @@
       <c r="J12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>56</v>
+      <c r="L12" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
         <v>75</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>55</v>
       </c>
-      <c r="P12" t="s">
-        <v>56</v>
-      </c>
       <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
         <v>76</v>
       </c>
-      <c r="R12" t="s">
-        <v>56</v>
-      </c>
       <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
         <v>77</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>78</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>77</v>
       </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
       <c r="W12" t="s">
         <v>56</v>
       </c>
       <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
         <v>78</v>
       </c>
-      <c r="Y12" t="s">
-        <v>56</v>
-      </c>
       <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" t="s">
-        <v>56</v>
-      </c>
       <c r="AC12" t="s">
         <v>56</v>
       </c>
@@ -2492,41 +2563,41 @@
         <v>56</v>
       </c>
       <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" t="s">
         <v>66</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>68</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>58</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>81</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>82</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>83</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>60</v>
       </c>
-      <c r="AM12" t="s">
-        <v>56</v>
-      </c>
       <c r="AN12" t="s">
         <v>56</v>
       </c>
       <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>85</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>56</v>
-      </c>
       <c r="AR12" t="s">
         <v>56</v>
       </c>
@@ -2537,28 +2608,31 @@
         <v>56</v>
       </c>
       <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
         <v>86</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>63</v>
       </c>
-      <c r="AW12" t="s">
-        <v>56</v>
-      </c>
       <c r="AX12" t="s">
         <v>56</v>
       </c>
       <c r="AY12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>87</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>56</v>
-      </c>
       <c r="BA12" t="s">
         <v>56</v>
       </c>
+      <c r="BB12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2566,16 +2640,16 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
@@ -2589,54 +2663,54 @@
       <c r="J13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>56</v>
+      <c r="L13" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
         <v>75</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>55</v>
       </c>
-      <c r="P13" t="s">
-        <v>56</v>
-      </c>
       <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
         <v>76</v>
       </c>
-      <c r="R13" t="s">
-        <v>56</v>
-      </c>
       <c r="S13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
         <v>77</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>78</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>77</v>
       </c>
-      <c r="V13" t="s">
-        <v>56</v>
-      </c>
       <c r="W13" t="s">
         <v>56</v>
       </c>
       <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" t="s">
-        <v>56</v>
-      </c>
       <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" t="s">
-        <v>56</v>
-      </c>
       <c r="AC13" t="s">
         <v>56</v>
       </c>
@@ -2647,41 +2721,41 @@
         <v>56</v>
       </c>
       <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>68</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>81</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>82</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>83</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>60</v>
       </c>
-      <c r="AM13" t="s">
-        <v>56</v>
-      </c>
       <c r="AN13" t="s">
         <v>56</v>
       </c>
       <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>85</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>56</v>
-      </c>
       <c r="AR13" t="s">
         <v>56</v>
       </c>
@@ -2692,28 +2766,31 @@
         <v>56</v>
       </c>
       <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
         <v>86</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>63</v>
       </c>
-      <c r="AW13" t="s">
-        <v>56</v>
-      </c>
       <c r="AX13" t="s">
         <v>56</v>
       </c>
       <c r="AY13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>87</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>56</v>
-      </c>
       <c r="BA13" t="s">
         <v>56</v>
       </c>
+      <c r="BB13" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2798,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -2730,7 +2807,7 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
         <v>65</v>
@@ -2744,54 +2821,54 @@
       <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="M14" t="s">
-        <v>56</v>
+      <c r="L14" t="s">
+        <v>201</v>
       </c>
       <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>55</v>
       </c>
-      <c r="P14" t="s">
-        <v>56</v>
-      </c>
       <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
         <v>76</v>
       </c>
-      <c r="R14" t="s">
-        <v>56</v>
-      </c>
       <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
         <v>77</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>78</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>77</v>
       </c>
-      <c r="V14" t="s">
-        <v>56</v>
-      </c>
       <c r="W14" t="s">
         <v>56</v>
       </c>
       <c r="X14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
         <v>78</v>
       </c>
-      <c r="Y14" t="s">
-        <v>56</v>
-      </c>
       <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" t="s">
-        <v>56</v>
-      </c>
       <c r="AC14" t="s">
         <v>56</v>
       </c>
@@ -2802,41 +2879,41 @@
         <v>56</v>
       </c>
       <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" t="s">
         <v>66</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>68</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>81</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>82</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>83</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>60</v>
       </c>
-      <c r="AM14" t="s">
-        <v>56</v>
-      </c>
       <c r="AN14" t="s">
         <v>56</v>
       </c>
       <c r="AO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>85</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>56</v>
-      </c>
       <c r="AR14" t="s">
         <v>56</v>
       </c>
@@ -2847,28 +2924,31 @@
         <v>56</v>
       </c>
       <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
         <v>86</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>63</v>
       </c>
-      <c r="AW14" t="s">
-        <v>56</v>
-      </c>
       <c r="AX14" t="s">
         <v>56</v>
       </c>
       <c r="AY14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>87</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>56</v>
-      </c>
       <c r="BA14" t="s">
         <v>56</v>
       </c>
+      <c r="BB14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2876,7 +2956,7 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -2885,7 +2965,7 @@
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
@@ -2899,54 +2979,54 @@
       <c r="J15" t="s">
         <v>74</v>
       </c>
-      <c r="M15" t="s">
-        <v>56</v>
+      <c r="L15" t="s">
+        <v>201</v>
       </c>
       <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
         <v>75</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>55</v>
       </c>
-      <c r="P15" t="s">
-        <v>56</v>
-      </c>
       <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
         <v>76</v>
       </c>
-      <c r="R15" t="s">
-        <v>56</v>
-      </c>
       <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
         <v>77</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>78</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>77</v>
       </c>
-      <c r="V15" t="s">
-        <v>56</v>
-      </c>
       <c r="W15" t="s">
         <v>56</v>
       </c>
       <c r="X15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" t="s">
         <v>78</v>
       </c>
-      <c r="Y15" t="s">
-        <v>56</v>
-      </c>
       <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" t="s">
-        <v>56</v>
-      </c>
       <c r="AC15" t="s">
         <v>56</v>
       </c>
@@ -2957,41 +3037,41 @@
         <v>56</v>
       </c>
       <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
         <v>66</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>68</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>81</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>82</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>83</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>60</v>
       </c>
-      <c r="AM15" t="s">
-        <v>56</v>
-      </c>
       <c r="AN15" t="s">
         <v>56</v>
       </c>
       <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>85</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>56</v>
-      </c>
       <c r="AR15" t="s">
         <v>56</v>
       </c>
@@ -3002,28 +3082,31 @@
         <v>56</v>
       </c>
       <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
         <v>86</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>63</v>
       </c>
-      <c r="AW15" t="s">
-        <v>56</v>
-      </c>
       <c r="AX15" t="s">
         <v>56</v>
       </c>
       <c r="AY15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>87</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>56</v>
-      </c>
       <c r="BA15" t="s">
         <v>56</v>
       </c>
+      <c r="BB15" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3114,7 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -3040,7 +3123,7 @@
         <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -3054,54 +3137,54 @@
       <c r="J16" t="s">
         <v>74</v>
       </c>
-      <c r="M16" t="s">
-        <v>56</v>
+      <c r="L16" t="s">
+        <v>201</v>
       </c>
       <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
         <v>75</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>55</v>
       </c>
-      <c r="P16" t="s">
-        <v>56</v>
-      </c>
       <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
         <v>76</v>
       </c>
-      <c r="R16" t="s">
-        <v>56</v>
-      </c>
       <c r="S16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
         <v>77</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>77</v>
       </c>
-      <c r="V16" t="s">
-        <v>56</v>
-      </c>
       <c r="W16" t="s">
         <v>56</v>
       </c>
       <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="s">
         <v>78</v>
       </c>
-      <c r="Y16" t="s">
-        <v>56</v>
-      </c>
       <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" t="s">
-        <v>56</v>
-      </c>
       <c r="AC16" t="s">
         <v>56</v>
       </c>
@@ -3112,41 +3195,41 @@
         <v>56</v>
       </c>
       <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
         <v>66</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>68</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>81</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>82</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>83</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>60</v>
       </c>
-      <c r="AM16" t="s">
-        <v>56</v>
-      </c>
       <c r="AN16" t="s">
         <v>56</v>
       </c>
       <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>85</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>56</v>
-      </c>
       <c r="AR16" t="s">
         <v>56</v>
       </c>
@@ -3157,28 +3240,31 @@
         <v>56</v>
       </c>
       <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
         <v>86</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>63</v>
       </c>
-      <c r="AW16" t="s">
-        <v>56</v>
-      </c>
       <c r="AX16" t="s">
         <v>56</v>
       </c>
       <c r="AY16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>87</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>56</v>
-      </c>
       <c r="BA16" t="s">
         <v>56</v>
       </c>
+      <c r="BB16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3186,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -3195,7 +3281,7 @@
         <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>65</v>
@@ -3209,54 +3295,54 @@
       <c r="J17" t="s">
         <v>74</v>
       </c>
-      <c r="M17" t="s">
-        <v>56</v>
+      <c r="L17" t="s">
+        <v>201</v>
       </c>
       <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
         <v>75</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>55</v>
       </c>
-      <c r="P17" t="s">
-        <v>56</v>
-      </c>
       <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
         <v>76</v>
       </c>
-      <c r="R17" t="s">
-        <v>56</v>
-      </c>
       <c r="S17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
         <v>77</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>78</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>77</v>
       </c>
-      <c r="V17" t="s">
-        <v>56</v>
-      </c>
       <c r="W17" t="s">
         <v>56</v>
       </c>
       <c r="X17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" t="s">
-        <v>56</v>
-      </c>
       <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" t="s">
-        <v>56</v>
-      </c>
       <c r="AC17" t="s">
         <v>56</v>
       </c>
@@ -3267,41 +3353,41 @@
         <v>56</v>
       </c>
       <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
         <v>66</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>68</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>81</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>82</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>83</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>60</v>
       </c>
-      <c r="AM17" t="s">
-        <v>56</v>
-      </c>
       <c r="AN17" t="s">
         <v>56</v>
       </c>
       <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>85</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>56</v>
-      </c>
       <c r="AR17" t="s">
         <v>56</v>
       </c>
@@ -3312,28 +3398,31 @@
         <v>56</v>
       </c>
       <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
         <v>86</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>63</v>
       </c>
-      <c r="AW17" t="s">
-        <v>56</v>
-      </c>
       <c r="AX17" t="s">
         <v>56</v>
       </c>
       <c r="AY17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>87</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>56</v>
-      </c>
       <c r="BA17" t="s">
         <v>56</v>
       </c>
+      <c r="BB17" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3341,7 +3430,7 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -3350,7 +3439,7 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
@@ -3364,54 +3453,54 @@
       <c r="J18" t="s">
         <v>74</v>
       </c>
-      <c r="M18" t="s">
-        <v>56</v>
+      <c r="L18" t="s">
+        <v>201</v>
       </c>
       <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
         <v>75</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" t="s">
-        <v>56</v>
-      </c>
       <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
         <v>76</v>
       </c>
-      <c r="R18" t="s">
-        <v>56</v>
-      </c>
       <c r="S18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
         <v>77</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>78</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>77</v>
       </c>
-      <c r="V18" t="s">
-        <v>56</v>
-      </c>
       <c r="W18" t="s">
         <v>56</v>
       </c>
       <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" t="s">
-        <v>56</v>
-      </c>
       <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" t="s">
-        <v>56</v>
-      </c>
       <c r="AC18" t="s">
         <v>56</v>
       </c>
@@ -3422,41 +3511,41 @@
         <v>56</v>
       </c>
       <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>68</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>81</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>82</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>83</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>60</v>
       </c>
-      <c r="AM18" t="s">
-        <v>56</v>
-      </c>
       <c r="AN18" t="s">
         <v>56</v>
       </c>
       <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>85</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>56</v>
-      </c>
       <c r="AR18" t="s">
         <v>56</v>
       </c>
@@ -3467,28 +3556,31 @@
         <v>56</v>
       </c>
       <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
         <v>86</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>63</v>
       </c>
-      <c r="AW18" t="s">
-        <v>56</v>
-      </c>
       <c r="AX18" t="s">
         <v>56</v>
       </c>
       <c r="AY18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>87</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>56</v>
-      </c>
       <c r="BA18" t="s">
         <v>56</v>
       </c>
+      <c r="BB18" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3496,7 +3588,7 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
@@ -3505,7 +3597,7 @@
         <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>65</v>
@@ -3519,54 +3611,54 @@
       <c r="J19" t="s">
         <v>74</v>
       </c>
-      <c r="M19" t="s">
-        <v>56</v>
+      <c r="L19" t="s">
+        <v>201</v>
       </c>
       <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
         <v>75</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>55</v>
       </c>
-      <c r="P19" t="s">
-        <v>56</v>
-      </c>
       <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
         <v>76</v>
       </c>
-      <c r="R19" t="s">
-        <v>56</v>
-      </c>
       <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
         <v>77</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>78</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>77</v>
       </c>
-      <c r="V19" t="s">
-        <v>56</v>
-      </c>
       <c r="W19" t="s">
         <v>56</v>
       </c>
       <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
         <v>78</v>
       </c>
-      <c r="Y19" t="s">
-        <v>56</v>
-      </c>
       <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" t="s">
-        <v>56</v>
-      </c>
       <c r="AC19" t="s">
         <v>56</v>
       </c>
@@ -3577,41 +3669,41 @@
         <v>56</v>
       </c>
       <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
         <v>66</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>68</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>82</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>83</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>60</v>
       </c>
-      <c r="AM19" t="s">
-        <v>56</v>
-      </c>
       <c r="AN19" t="s">
         <v>56</v>
       </c>
       <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
         <v>84</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>85</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>56</v>
-      </c>
       <c r="AR19" t="s">
         <v>56</v>
       </c>
@@ -3622,28 +3714,31 @@
         <v>56</v>
       </c>
       <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
         <v>86</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>63</v>
       </c>
-      <c r="AW19" t="s">
-        <v>56</v>
-      </c>
       <c r="AX19" t="s">
         <v>56</v>
       </c>
       <c r="AY19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>87</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>56</v>
-      </c>
       <c r="BA19" t="s">
         <v>56</v>
       </c>
+      <c r="BB19" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3651,7 +3746,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -3660,7 +3755,7 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
         <v>65</v>
@@ -3674,54 +3769,54 @@
       <c r="J20" t="s">
         <v>74</v>
       </c>
-      <c r="M20" t="s">
-        <v>56</v>
+      <c r="L20" t="s">
+        <v>201</v>
       </c>
       <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
         <v>75</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>55</v>
       </c>
-      <c r="P20" t="s">
-        <v>56</v>
-      </c>
       <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
         <v>76</v>
       </c>
-      <c r="R20" t="s">
-        <v>56</v>
-      </c>
       <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
         <v>77</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>78</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>77</v>
       </c>
-      <c r="V20" t="s">
-        <v>56</v>
-      </c>
       <c r="W20" t="s">
         <v>56</v>
       </c>
       <c r="X20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" t="s">
         <v>78</v>
       </c>
-      <c r="Y20" t="s">
-        <v>56</v>
-      </c>
       <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" t="s">
-        <v>56</v>
-      </c>
       <c r="AC20" t="s">
         <v>56</v>
       </c>
@@ -3732,41 +3827,41 @@
         <v>56</v>
       </c>
       <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" t="s">
         <v>66</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>68</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>81</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>82</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>83</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>60</v>
       </c>
-      <c r="AM20" t="s">
-        <v>56</v>
-      </c>
       <c r="AN20" t="s">
         <v>56</v>
       </c>
       <c r="AO20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>85</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>56</v>
-      </c>
       <c r="AR20" t="s">
         <v>56</v>
       </c>
@@ -3777,28 +3872,31 @@
         <v>56</v>
       </c>
       <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
         <v>86</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>63</v>
       </c>
-      <c r="AW20" t="s">
-        <v>56</v>
-      </c>
       <c r="AX20" t="s">
         <v>56</v>
       </c>
       <c r="AY20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>87</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>56</v>
-      </c>
       <c r="BA20" t="s">
         <v>56</v>
       </c>
+      <c r="BB20" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3806,7 +3904,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -3815,7 +3913,7 @@
         <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -3829,54 +3927,54 @@
       <c r="J21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" t="s">
-        <v>56</v>
+      <c r="L21" t="s">
+        <v>201</v>
       </c>
       <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" t="s">
         <v>75</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>55</v>
       </c>
-      <c r="P21" t="s">
-        <v>56</v>
-      </c>
       <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
         <v>76</v>
       </c>
-      <c r="R21" t="s">
-        <v>56</v>
-      </c>
       <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" t="s">
         <v>77</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>78</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>77</v>
       </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
       <c r="W21" t="s">
         <v>56</v>
       </c>
       <c r="X21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" t="s">
         <v>78</v>
       </c>
-      <c r="Y21" t="s">
-        <v>56</v>
-      </c>
       <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" t="s">
-        <v>56</v>
-      </c>
       <c r="AC21" t="s">
         <v>56</v>
       </c>
@@ -3887,41 +3985,41 @@
         <v>56</v>
       </c>
       <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21" t="s">
         <v>66</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>81</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>82</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>83</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>60</v>
       </c>
-      <c r="AM21" t="s">
-        <v>56</v>
-      </c>
       <c r="AN21" t="s">
         <v>56</v>
       </c>
       <c r="AO21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" t="s">
         <v>84</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>85</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>56</v>
-      </c>
       <c r="AR21" t="s">
         <v>56</v>
       </c>
@@ -3932,28 +4030,31 @@
         <v>56</v>
       </c>
       <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
         <v>86</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>63</v>
       </c>
-      <c r="AW21" t="s">
-        <v>56</v>
-      </c>
       <c r="AX21" t="s">
         <v>56</v>
       </c>
       <c r="AY21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>87</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>56</v>
-      </c>
       <c r="BA21" t="s">
         <v>56</v>
       </c>
+      <c r="BB21" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3961,7 +4062,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -3970,7 +4071,7 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -3984,54 +4085,54 @@
       <c r="J22" t="s">
         <v>74</v>
       </c>
-      <c r="M22" t="s">
-        <v>56</v>
+      <c r="L22" t="s">
+        <v>201</v>
       </c>
       <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
         <v>75</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>55</v>
       </c>
-      <c r="P22" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
         <v>76</v>
       </c>
-      <c r="R22" t="s">
-        <v>56</v>
-      </c>
       <c r="S22" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" t="s">
         <v>77</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>78</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>77</v>
       </c>
-      <c r="V22" t="s">
-        <v>56</v>
-      </c>
       <c r="W22" t="s">
         <v>56</v>
       </c>
       <c r="X22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" t="s">
-        <v>56</v>
-      </c>
       <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" t="s">
-        <v>56</v>
-      </c>
       <c r="AC22" t="s">
         <v>56</v>
       </c>
@@ -4042,41 +4143,41 @@
         <v>56</v>
       </c>
       <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22" t="s">
         <v>66</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>68</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>81</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>82</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>83</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>60</v>
       </c>
-      <c r="AM22" t="s">
-        <v>56</v>
-      </c>
       <c r="AN22" t="s">
         <v>56</v>
       </c>
       <c r="AO22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>85</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>56</v>
-      </c>
       <c r="AR22" t="s">
         <v>56</v>
       </c>
@@ -4087,28 +4188,31 @@
         <v>56</v>
       </c>
       <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
         <v>86</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>63</v>
       </c>
-      <c r="AW22" t="s">
-        <v>56</v>
-      </c>
       <c r="AX22" t="s">
         <v>56</v>
       </c>
       <c r="AY22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>87</v>
       </c>
-      <c r="AZ22" t="s">
-        <v>56</v>
-      </c>
       <c r="BA22" t="s">
         <v>56</v>
       </c>
+      <c r="BB22" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4116,7 +4220,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -4125,7 +4229,7 @@
         <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -4139,54 +4243,54 @@
       <c r="J23" t="s">
         <v>74</v>
       </c>
-      <c r="M23" t="s">
-        <v>56</v>
+      <c r="L23" t="s">
+        <v>201</v>
       </c>
       <c r="N23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" t="s">
         <v>75</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>55</v>
       </c>
-      <c r="P23" t="s">
-        <v>56</v>
-      </c>
       <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
         <v>76</v>
       </c>
-      <c r="R23" t="s">
-        <v>56</v>
-      </c>
       <c r="S23" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" t="s">
         <v>77</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>78</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>77</v>
       </c>
-      <c r="V23" t="s">
-        <v>56</v>
-      </c>
       <c r="W23" t="s">
         <v>56</v>
       </c>
       <c r="X23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y23" t="s">
         <v>78</v>
       </c>
-      <c r="Y23" t="s">
-        <v>56</v>
-      </c>
       <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" t="s">
-        <v>56</v>
-      </c>
       <c r="AC23" t="s">
         <v>56</v>
       </c>
@@ -4197,41 +4301,41 @@
         <v>56</v>
       </c>
       <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>81</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>82</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>83</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>60</v>
       </c>
-      <c r="AM23" t="s">
-        <v>56</v>
-      </c>
       <c r="AN23" t="s">
         <v>56</v>
       </c>
       <c r="AO23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP23" t="s">
         <v>84</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>85</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>56</v>
-      </c>
       <c r="AR23" t="s">
         <v>56</v>
       </c>
@@ -4242,24 +4346,27 @@
         <v>56</v>
       </c>
       <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
         <v>86</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>63</v>
       </c>
-      <c r="AW23" t="s">
-        <v>56</v>
-      </c>
       <c r="AX23" t="s">
         <v>56</v>
       </c>
       <c r="AY23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>87</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>56</v>
-      </c>
       <c r="BA23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB23" t="s">
         <v>56</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C3/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C3/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B9E723-AF88-4BD6-8D4F-3EA256F160D2}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D46B933-DDE4-4F4A-80E2-64EB3F688137}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,6 @@
     <t>Downcast data only</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>John Morrison</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>320620110219</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1208,13 +1208,13 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -1223,22 +1223,22 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
         <v>89</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
         <v>91</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>92</v>
       </c>
       <c r="P2" t="s">
         <v>55</v>
@@ -1247,91 +1247,91 @@
         <v>56</v>
       </c>
       <c r="R2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" t="s">
         <v>193</v>
       </c>
-      <c r="S2" t="s">
-        <v>194</v>
-      </c>
       <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
         <v>93</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>94</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" t="s">
         <v>95</v>
       </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>101</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>102</v>
       </c>
       <c r="AG2" t="s">
         <v>66</v>
       </c>
       <c r="AH2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI2" t="s">
         <v>58</v>
       </c>
       <c r="AJ2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK2" t="s">
         <v>59</v>
       </c>
       <c r="AL2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" t="s">
         <v>105</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" t="s">
         <v>106</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>107</v>
       </c>
       <c r="AQ2" t="s">
         <v>85</v>
       </c>
       <c r="AR2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" t="s">
         <v>108</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>109</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>110</v>
       </c>
       <c r="AU2" t="s">
         <v>67</v>
@@ -1366,13 +1366,13 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -1381,22 +1381,22 @@
         <v>65</v>
       </c>
       <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
         <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>92</v>
       </c>
       <c r="P3" t="s">
         <v>55</v>
@@ -1405,91 +1405,91 @@
         <v>56</v>
       </c>
       <c r="R3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" t="s">
         <v>193</v>
       </c>
-      <c r="S3" t="s">
-        <v>194</v>
-      </c>
       <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>94</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
         <v>95</v>
       </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>99</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
         <v>100</v>
       </c>
-      <c r="AD3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>101</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>102</v>
       </c>
       <c r="AG3" t="s">
         <v>66</v>
       </c>
       <c r="AH3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AI3" t="s">
         <v>58</v>
       </c>
       <c r="AJ3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK3" t="s">
         <v>59</v>
       </c>
       <c r="AL3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM3" t="s">
         <v>105</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
         <v>106</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>107</v>
       </c>
       <c r="AQ3" t="s">
         <v>85</v>
       </c>
       <c r="AR3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" t="s">
         <v>108</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>109</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>110</v>
       </c>
       <c r="AU3" t="s">
         <v>67</v>
@@ -1521,16 +1521,16 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>71</v>
@@ -1539,43 +1539,43 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>134</v>
-      </c>
-      <c r="N4" t="s">
-        <v>135</v>
       </c>
       <c r="P4" t="s">
         <v>55</v>
       </c>
       <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" t="s">
         <v>136</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" t="s">
         <v>137</v>
       </c>
-      <c r="V4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>138</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>139</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>140</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>68</v>
@@ -1596,19 +1596,19 @@
         <v>60</v>
       </c>
       <c r="AN4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO4" t="s">
         <v>141</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>142</v>
       </c>
       <c r="AP4" t="s">
         <v>84</v>
       </c>
       <c r="AR4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AX4" t="s">
         <v>62</v>
@@ -1619,16 +1619,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -1637,43 +1637,43 @@
         <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
         <v>134</v>
-      </c>
-      <c r="N5" t="s">
-        <v>135</v>
       </c>
       <c r="P5" t="s">
         <v>55</v>
       </c>
       <c r="T5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" t="s">
         <v>136</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA5" t="s">
         <v>137</v>
       </c>
-      <c r="V5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>138</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AG5" t="s">
         <v>139</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>140</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>68</v>
@@ -1688,22 +1688,22 @@
         <v>59</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM5" t="s">
         <v>60</v>
       </c>
       <c r="AN5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO5" t="s">
         <v>141</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>142</v>
       </c>
       <c r="AP5" t="s">
         <v>84</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AW5" t="s">
         <v>63</v>
@@ -1717,16 +1717,16 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -1735,43 +1735,43 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" t="s">
-        <v>151</v>
-      </c>
       <c r="N6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
         <v>55</v>
       </c>
       <c r="T6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" t="s">
         <v>136</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA6" t="s">
         <v>137</v>
       </c>
-      <c r="V6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>138</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AG6" t="s">
         <v>139</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>140</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>68</v>
@@ -1792,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="AN6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO6" t="s">
         <v>141</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>142</v>
       </c>
       <c r="AP6" t="s">
         <v>84</v>
@@ -1804,7 +1804,7 @@
         <v>85</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AW6" t="s">
         <v>63</v>
@@ -1815,16 +1815,16 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -1833,43 +1833,43 @@
         <v>54</v>
       </c>
       <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
         <v>153</v>
       </c>
-      <c r="I7" t="s">
-        <v>154</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
         <v>134</v>
-      </c>
-      <c r="N7" t="s">
-        <v>135</v>
       </c>
       <c r="P7" t="s">
         <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" t="s">
         <v>137</v>
       </c>
-      <c r="V7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AG7" t="s">
         <v>139</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>140</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>68</v>
@@ -1890,10 +1890,10 @@
         <v>60</v>
       </c>
       <c r="AN7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO7" t="s">
         <v>141</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>142</v>
       </c>
       <c r="AP7" t="s">
         <v>84</v>
@@ -1902,13 +1902,13 @@
         <v>85</v>
       </c>
       <c r="AR7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AW7" t="s">
         <v>63</v>
@@ -1922,16 +1922,16 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
         <v>71</v>
@@ -1940,40 +1940,40 @@
         <v>54</v>
       </c>
       <c r="H8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
         <v>190</v>
       </c>
-      <c r="I8" t="s">
-        <v>191</v>
-      </c>
       <c r="L8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" t="s">
         <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U8" t="s">
+        <v>136</v>
+      </c>
+      <c r="V8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA8" t="s">
         <v>137</v>
       </c>
-      <c r="V8" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>138</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AG8" t="s">
         <v>139</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>140</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>68</v>
@@ -1994,7 +1994,7 @@
         <v>60</v>
       </c>
       <c r="AN8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="s">
         <v>69</v>
@@ -2008,13 +2008,13 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2023,19 +2023,19 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
         <v>158</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>159</v>
       </c>
-      <c r="J9" t="s">
-        <v>160</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O9" t="s">
         <v>75</v>
@@ -2047,19 +2047,19 @@
         <v>56</v>
       </c>
       <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" t="s">
         <v>161</v>
-      </c>
-      <c r="S9" t="s">
-        <v>162</v>
       </c>
       <c r="T9" t="s">
         <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W9" t="s">
         <v>56</v>
@@ -2074,10 +2074,10 @@
         <v>56</v>
       </c>
       <c r="AA9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB9" t="s">
         <v>164</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>165</v>
       </c>
       <c r="AC9" t="s">
         <v>56</v>
@@ -2128,13 +2128,13 @@
         <v>42</v>
       </c>
       <c r="AS9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AV9" t="s">
         <v>46</v>
@@ -2166,13 +2166,13 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2181,19 +2181,19 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="s">
         <v>168</v>
       </c>
-      <c r="I10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" t="s">
-        <v>169</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
         <v>75</v>
@@ -2205,22 +2205,22 @@
         <v>56</v>
       </c>
       <c r="R10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" t="s">
         <v>161</v>
-      </c>
-      <c r="S10" t="s">
-        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X10" t="s">
         <v>56</v>
@@ -2229,13 +2229,13 @@
         <v>61</v>
       </c>
       <c r="Z10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB10" t="s">
         <v>164</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>165</v>
       </c>
       <c r="AC10" t="s">
         <v>56</v>
@@ -2286,7 +2286,7 @@
         <v>42</v>
       </c>
       <c r="AS10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT10" t="s">
         <v>56</v>
@@ -2324,13 +2324,13 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2339,19 +2339,19 @@
         <v>65</v>
       </c>
       <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
         <v>173</v>
       </c>
-      <c r="I11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" t="s">
-        <v>174</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
         <v>75</v>
@@ -2363,22 +2363,22 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S11" t="s">
         <v>161</v>
-      </c>
-      <c r="S11" t="s">
-        <v>162</v>
       </c>
       <c r="T11" t="s">
         <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X11" t="s">
         <v>56</v>
@@ -2387,13 +2387,13 @@
         <v>61</v>
       </c>
       <c r="Z11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB11" t="s">
         <v>164</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>165</v>
       </c>
       <c r="AC11" t="s">
         <v>56</v>
@@ -2444,7 +2444,7 @@
         <v>42</v>
       </c>
       <c r="AS11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT11" t="s">
         <v>56</v>
@@ -2482,16 +2482,16 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -2506,7 +2506,7 @@
         <v>74</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N12" t="s">
         <v>56</v>
@@ -2640,16 +2640,16 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
         <v>65</v>
@@ -2664,7 +2664,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N13" t="s">
         <v>56</v>
@@ -2798,16 +2798,16 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
         <v>65</v>
@@ -2822,7 +2822,7 @@
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N14" t="s">
         <v>56</v>
@@ -2956,16 +2956,16 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
@@ -2980,7 +2980,7 @@
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s">
         <v>56</v>
@@ -3114,16 +3114,16 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -3138,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
         <v>56</v>
@@ -3272,16 +3272,16 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>65</v>
@@ -3296,7 +3296,7 @@
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
         <v>56</v>
@@ -3430,16 +3430,16 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
@@ -3454,7 +3454,7 @@
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s">
         <v>56</v>
@@ -3588,16 +3588,16 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>65</v>
@@ -3612,7 +3612,7 @@
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s">
         <v>56</v>
@@ -3746,16 +3746,16 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>65</v>
@@ -3770,7 +3770,7 @@
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s">
         <v>56</v>
@@ -3904,16 +3904,16 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -3928,7 +3928,7 @@
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s">
         <v>56</v>
@@ -4062,16 +4062,16 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -4086,7 +4086,7 @@
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
         <v>56</v>
@@ -4220,16 +4220,16 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -4244,7 +4244,7 @@
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s">
         <v>56</v>

--- a/product_data/processing_metadata/C3/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C3/PROF_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D46B933-DDE4-4F4A-80E2-64EB3F688137}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7846D7A3-DCA7-4644-9F78-A265BD14ED87}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
@@ -657,9 +657,6 @@
     <t>320620110219_prof</t>
   </si>
   <si>
-    <t>320620140320 _prof</t>
-  </si>
-  <si>
     <t>320620180309</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>320620140320_prof</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1211,7 +1211,7 @@
         <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>110</v>
@@ -1369,7 +1369,7 @@
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
         <v>111</v>
@@ -2014,7 +2014,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2172,7 +2172,7 @@
         <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
@@ -2190,7 +2190,7 @@
         <v>168</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N10" t="s">
         <v>134</v>
@@ -2330,7 +2330,7 @@
         <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>

--- a/product_data/processing_metadata/C3/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C3/PROF_meta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="82" documentId="8_{76C6BC22-AA45-4E35-9A2F-58BB93559583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7846D7A3-DCA7-4644-9F78-A265BD14ED87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
+    <workbookView minimized="1" xWindow="4830" yWindow="5220" windowWidth="9600" windowHeight="4905" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
